--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value385.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value385.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8330247135983547</v>
+        <v>2.205562353134155</v>
       </c>
       <c r="B1">
-        <v>1.336695656774106</v>
+        <v>3.28863787651062</v>
       </c>
       <c r="C1">
-        <v>1.739762631422526</v>
+        <v>2.774307727813721</v>
       </c>
       <c r="D1">
-        <v>2.021553462361584</v>
+        <v>2.102351665496826</v>
       </c>
       <c r="E1">
-        <v>2.414484951132252</v>
+        <v>1.248859643936157</v>
       </c>
     </row>
   </sheetData>
